--- a/Base/APIOutputAgentData_300_gridConnections.xlsx
+++ b/Base/APIOutputAgentData_300_gridConnections.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-554.9071135646353</t>
+          <t>-554.8598635648312</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-227.6011135646638</t>
+          <t>-227.5538635646293</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -751,12 +751,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-163.71911356467206</t>
+          <t>-163.67186356463006</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-797.4991135646349</t>
+          <t>-797.4518635649064</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-186.1471135646692</t>
+          <t>-186.0998635646297</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-1164.831113564687</t>
+          <t>-1825.4438635648833</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-475.6111135646337</t>
+          <t>-475.56386356478544</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-450.15911356463477</t>
+          <t>-363.29786356471243</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-267.0391135646595</t>
+          <t>-266.9918635646406</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-377.75111356463697</t>
+          <t>-377.70386356472414</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-135.32711356467314</t>
+          <t>-135.27986356464086</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1606,12 +1606,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1646,12 +1646,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-374.1811135646364</t>
+          <t>-374.13386356472057</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-218.31911356466543</t>
+          <t>-218.27186356462934</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-500.3491135646339</t>
+          <t>-500.301863564797</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-431.3431135646344</t>
+          <t>-431.29586356475676</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-296.9431135646496</t>
+          <t>-296.89586356466396</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-280.1011135646563</t>
+          <t>-280.05386356465095</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-440.6671135646345</t>
+          <t>-440.61986356476353</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-1295.0311135647296</t>
+          <t>-1294.9838635649126</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-205.9711135646668</t>
+          <t>-205.92386356462978</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-519.711113564633</t>
+          <t>-519.6638635648104</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>-327.93911356463843</t>
+          <t>-327.8918635646904</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>-200.8471135646674</t>
+          <t>-200.79986356462993</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>-344.99111356463646</t>
+          <t>-344.94386356470085</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-203.74511356466704</t>
+          <t>-203.69786356462976</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-1077.219113564655</t>
+          <t>-1077.1718635649288</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-559.0231135646335</t>
+          <t>-558.9758635648357</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>-1273.1071135647203</t>
+          <t>-1273.0598635649217</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>-265.61111356465955</t>
+          <t>-265.5638635646382</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>-1166.427113564687</t>
+          <t>-1166.3798635649187</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-617.6551135646339</t>
+          <t>-617.607863564876</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>-660.0751135646326</t>
+          <t>-660.027863564888</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>-196.05911356466797</t>
+          <t>-196.0118635646299</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>-1002.9211135646311</t>
+          <t>-496.1858635647959</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>-1029.5491135646369</t>
+          <t>-1029.5018635649271</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>-283.83911356465416</t>
+          <t>-283.79186356465425</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>-353.7271135646367</t>
+          <t>-336.2078635646928</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>-1207.6711135646924</t>
+          <t>-937.3538635649197</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4361,12 +4361,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>-567.6751135646342</t>
+          <t>-567.6278635648399</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>-690.5671135646337</t>
+          <t>-690.5198635648859</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>-437.89511356463504</t>
+          <t>-437.8478635647617</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>-231.42311356466348</t>
+          <t>-231.3758635646295</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>-229.23911356466382</t>
+          <t>-229.19186356462984</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>-286.6531135646524</t>
+          <t>-286.6058635646565</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-996.1171135646379</t>
+          <t>-996.0698635649203</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -5026,12 +5026,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5066,12 +5066,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>-1540.3951135647833</t>
+          <t>-1587.3038635649139</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -5121,12 +5121,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5161,12 +5161,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>-997.9231135646351</t>
+          <t>-1027.9058635649312</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5256,12 +5256,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>-376.617113564636</t>
+          <t>-376.56986356472265</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>-318.7831135646416</t>
+          <t>-318.7358635646802</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-1161.7231135646834</t>
+          <t>-1161.6758635649232</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>-549.8671135646334</t>
+          <t>-549.8198635648275</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>-379.9351135646371</t>
+          <t>-379.8878635647271</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>-299.79911356465004</t>
+          <t>-299.7518635646669</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>-351.5431135646362</t>
+          <t>-351.4958635647053</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>-558.9811135646337</t>
+          <t>-558.9338635648329</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>-1384.3231135647513</t>
+          <t>-1384.2758635649075</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -6071,12 +6071,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>-452.84711356463526</t>
+          <t>-452.7998635647671</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>-1165.5451135646822</t>
+          <t>-1165.4978635649245</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>-504.84311356463417</t>
+          <t>-592.155863564851</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>-266.36711356466</t>
+          <t>-266.3198635646392</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>-759.9511135646331</t>
+          <t>-759.9038635648986</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>-418.99511356463603</t>
+          <t>-418.947863564749</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>-137.51111356467285</t>
+          <t>-137.4638635646405</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6736,12 +6736,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -6776,12 +6776,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>-326.38511356463755</t>
+          <t>-326.33786356468624</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -6831,12 +6831,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2.900000000000002</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>-917.19911356464</t>
+          <t>-629.409863564879</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -6926,12 +6926,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -6966,12 +6966,12 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>-351.5431135646357</t>
+          <t>-351.49586356470365</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>-716.0611135646328</t>
+          <t>-716.013863564892</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>-369.5191135646363</t>
+          <t>-297.39986356466426</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>-720.2191135646324</t>
+          <t>-720.1718635648939</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>-343.9831135646364</t>
+          <t>-343.93586356469797</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -7441,7 +7441,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>-360.6991135646361</t>
+          <t>-360.6518635647119</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>-788.3431135646354</t>
+          <t>-788.2958635649013</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>-589.9351135646361</t>
+          <t>-589.8878635648522</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>-303.4951135646499</t>
+          <t>-303.4478635646696</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7781,12 +7781,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -7821,12 +7821,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>-425.79911356463566</t>
+          <t>-425.75186356475547</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>-168.5071135646717</t>
+          <t>-168.4598635646302</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>-1161.4711135646805</t>
+          <t>-1082.799863564933</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>-1118.8831135646758</t>
+          <t>-1147.2173635649197</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>-722.8231135646322</t>
+          <t>-722.7758635648952</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>-626.7271135646344</t>
+          <t>-626.6798635648742</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>-249.48311356466198</t>
+          <t>-222.1358635646299</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -8446,12 +8446,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -8486,12 +8486,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>-513.1591135646363</t>
+          <t>-447.59186356476664</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -8541,12 +8541,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -8581,12 +8581,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>-501.7351135646344</t>
+          <t>-501.6878635647982</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -8636,12 +8636,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>-591.7831135646339</t>
+          <t>-591.7358635648495</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>-130.95911356467403</t>
+          <t>-130.91186356464146</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -8781,7 +8781,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>-506.6071135646341</t>
+          <t>-506.55986356480844</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>-211.76711356466583</t>
+          <t>-211.71986356462978</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>-213.95111356466577</t>
+          <t>-213.90386356462977</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -9111,7 +9111,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>-879.063113564631</t>
+          <t>-879.0158635649149</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>-150.6151135646719</t>
+          <t>-150.5678635646374</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>-315.0451135646438</t>
+          <t>-314.9978635646778</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -9406,7 +9406,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>-183.3751135646694</t>
+          <t>-183.32786356462952</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -9491,12 +9491,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -9531,12 +9531,12 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>-793.6351135646344</t>
+          <t>-793.5878635649001</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>-213.9511135646658</t>
+          <t>-213.9038635646301</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>-1813.9411135648184</t>
+          <t>-1813.8938635648217</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>-1118.1271135646693</t>
+          <t>-1118.0798635649282</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>-248.89511356466124</t>
+          <t>-248.84786356462973</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>-432.1411135646346</t>
+          <t>-432.09386356475574</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>-279.4711135646566</t>
+          <t>-279.4238635646512</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -10156,12 +10156,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -10196,12 +10196,12 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>-624.5431135646359</t>
+          <t>-624.495863564876</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -10251,12 +10251,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -10291,12 +10291,12 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>-447.0511135646346</t>
+          <t>-447.0038635647666</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -10386,7 +10386,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>-379.93511356463665</t>
+          <t>-379.8878635647252</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>-165.90311356467177</t>
+          <t>-165.85586356463028</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -10576,12 +10576,12 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>-200.84711356466747</t>
+          <t>-200.79986356463016</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>-330.12311356463744</t>
+          <t>-330.0758635646876</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.9000000000000061</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>-3047.103113564861</t>
+          <t>-2024.9438635647964</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>-199.2931135646677</t>
+          <t>-199.2458635646301</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>-399.5911135646364</t>
+          <t>-399.5438635647381</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2.1000000000000014</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>-2442.261113564859</t>
+          <t>-3359.861363564775</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -11106,7 +11106,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>-287.3251135646528</t>
+          <t>-287.2778635646572</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -11201,12 +11201,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>3.500000000000008</t>
+          <t>2.825</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -11241,12 +11241,12 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>-627.7771135646357</t>
+          <t>-627.6353635648749</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -11296,12 +11296,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>-344.9911135646358</t>
+          <t>-344.9438635646999</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -11391,12 +11391,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -11431,12 +11431,12 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>-368.51111356463565</t>
+          <t>-368.46386356471675</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -11526,7 +11526,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>-137.51111356467297</t>
+          <t>-137.46386356464032</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>-351.54311356463637</t>
+          <t>-351.49586356470496</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -11686,7 +11686,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>-763.3951135646305</t>
+          <t>-566.7878635648383</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>-568.2631135646352</t>
+          <t>-568.2158635648387</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
@@ -11821,7 +11821,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -11906,7 +11906,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>-549.5311135646325</t>
+          <t>-549.4838635648289</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>-1316.871113564741</t>
+          <t>-1316.8238635649127</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -12096,7 +12096,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>-400.1791135646358</t>
+          <t>-400.13186356473796</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -12106,7 +12106,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>-1673.1991135648063</t>
+          <t>-1673.1518635648413</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
@@ -12246,12 +12246,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>-279.47111356465604</t>
+          <t>-222.63986356462937</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>-237.97511356466308</t>
+          <t>-237.92786356462938</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
@@ -12436,7 +12436,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>-947.7751135646358</t>
+          <t>-947.7278635649219</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>-266.6611135646596</t>
+          <t>-266.6138635646394</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -12581,7 +12581,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -12626,7 +12626,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>-648.0631135646347</t>
+          <t>-648.0158635648833</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
@@ -12676,7 +12676,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
@@ -12721,7 +12721,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>-174.63911356467042</t>
+          <t>-174.59186356463002</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
@@ -12816,7 +12816,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>-135.32711356467323</t>
+          <t>-135.279863564641</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
@@ -12911,12 +12911,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -12951,12 +12951,12 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>-586.4071135646342</t>
+          <t>-586.3598635648456</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -13006,12 +13006,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -13046,12 +13046,12 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>-133.14311356467365</t>
+          <t>-133.09586356464106</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -13101,12 +13101,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -13141,12 +13141,12 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>-781.7911135646345</t>
+          <t>-781.7438635649003</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>3.700000000000003</t>
+          <t>2.825</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>-578.3431135646349</t>
+          <t>-669.9713635648831</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>-224.8711135646641</t>
+          <t>-224.82386356462925</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -13426,7 +13426,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>-220.50311356466446</t>
+          <t>-220.45586356462954</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
@@ -13436,7 +13436,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -13521,7 +13521,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>-800.4811135646366</t>
+          <t>-800.4338635648999</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -13531,7 +13531,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -13586,7 +13586,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>-189.92711356466884</t>
+          <t>-189.87986356462997</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -13626,7 +13626,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
@@ -13671,7 +13671,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -13681,7 +13681,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>-196.4791135646681</t>
+          <t>-196.43186356462994</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -13776,7 +13776,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -13806,7 +13806,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>-320.96711356464124</t>
+          <t>-320.91986356468215</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>-233.60711356466348</t>
+          <t>-233.55986356462915</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -13911,7 +13911,7 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
@@ -13956,12 +13956,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -13996,12 +13996,12 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>-200.84711356466724</t>
+          <t>-200.79986356462965</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -14061,7 +14061,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>-204.96311356466686</t>
+          <t>-204.91586356462983</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
@@ -14101,7 +14101,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -14156,7 +14156,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>-135.3271135646733</t>
+          <t>-135.27986356464078</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -14241,7 +14241,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -14251,7 +14251,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>-393.6271135646356</t>
+          <t>-513.6998635648117</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -14376,7 +14376,7 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>-1133.41511356467</t>
+          <t>-1216.905863564915</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -14471,7 +14471,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>-277.28711356465607</t>
+          <t>-277.23986356464985</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -14566,7 +14566,7 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>-431.8891135646347</t>
+          <t>-431.84186356475726</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -14621,12 +14621,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -14661,12 +14661,12 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>-120.03911356467405</t>
+          <t>-119.99186356464385</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -14716,12 +14716,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -14756,12 +14756,12 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>-249.31511356466203</t>
+          <t>-249.26786356462986</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -14811,12 +14811,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -14851,12 +14851,12 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>-135.32711356467325</t>
+          <t>-135.27986356464095</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -14946,7 +14946,7 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>-456.71111356463365</t>
+          <t>-404.24786356474203</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
@@ -14956,7 +14956,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>-334.07111356463724</t>
+          <t>-334.023863564695</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
@@ -15051,7 +15051,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -15136,7 +15136,7 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>-435.963113564635</t>
+          <t>-1003.7558635649085</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -15201,7 +15201,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>-626.3071135646345</t>
+          <t>-626.2598635648753</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
@@ -15241,7 +15241,7 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
@@ -15286,7 +15286,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -15296,7 +15296,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -15326,7 +15326,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>-527.6491135646336</t>
+          <t>-527.6018635648154</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
@@ -15336,7 +15336,7 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -15421,7 +15421,7 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>-729.3751135646359</t>
+          <t>-607.0238635648599</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>-578.6791135646358</t>
+          <t>-578.6318635648435</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
@@ -15526,7 +15526,7 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -15581,7 +15581,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>-133.14311356467357</t>
+          <t>-133.09586356464115</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
@@ -15621,7 +15621,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -15666,12 +15666,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -15706,12 +15706,12 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>-524.0791135646342</t>
+          <t>-524.0318635648163</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -15761,7 +15761,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -15771,7 +15771,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -15801,7 +15801,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>-357.00311356463584</t>
+          <t>-356.95586356470886</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
@@ -15811,7 +15811,7 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -15866,7 +15866,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -15896,7 +15896,7 @@
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>-279.47111356465683</t>
+          <t>-279.4238635646494</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
@@ -15906,7 +15906,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>-183.3751135646693</t>
+          <t>-183.32786356462978</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
@@ -16001,7 +16001,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -16086,7 +16086,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>-297.6151135646513</t>
+          <t>-297.56786356466574</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
@@ -16096,7 +16096,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -16181,7 +16181,7 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>-676.2031135646342</t>
+          <t>-676.1558635648871</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
@@ -16191,7 +16191,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
@@ -16236,7 +16236,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>2.825</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>-782.1691135646374</t>
+          <t>-782.1218635648999</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
@@ -16286,7 +16286,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
@@ -16331,12 +16331,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -16371,12 +16371,12 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>-294.7591135646522</t>
+          <t>-294.71186356466296</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -16426,12 +16426,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -16466,12 +16466,12 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>-165.90311356467163</t>
+          <t>-165.8558635646303</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -16521,12 +16521,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -16561,12 +16561,12 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>-565.3231135646334</t>
+          <t>-565.275863564836</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -16656,7 +16656,7 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>-139.6951135646727</t>
+          <t>-139.64786356463966</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -16666,7 +16666,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -16721,7 +16721,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>-484.7671135646345</t>
+          <t>-484.719863564791</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -16806,7 +16806,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -16816,7 +16816,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -16846,7 +16846,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>-392.61911356463577</t>
+          <t>-392.57186356473403</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
@@ -16901,7 +16901,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -16911,7 +16911,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -16941,7 +16941,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>-321.30311356464136</t>
+          <t>-321.25586356468307</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
@@ -16951,7 +16951,7 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
@@ -16996,7 +16996,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>-459.48311356463614</t>
+          <t>-428.859863564755</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -17131,7 +17131,7 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>-365.4871135646366</t>
+          <t>-365.43986356471385</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
@@ -17141,7 +17141,7 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S176" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -17196,7 +17196,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>-436.7191135646357</t>
+          <t>-436.6718635647587</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -17236,7 +17236,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
@@ -17281,7 +17281,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -17321,7 +17321,7 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>-360.2791135646371</t>
+          <t>-360.23186356471166</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
@@ -17376,12 +17376,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -17416,12 +17416,12 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>-358.0951135646368</t>
+          <t>-358.04786356471027</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -17471,7 +17471,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -17511,7 +17511,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>-534.9151135646345</t>
+          <t>-534.867863564818</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
@@ -17521,7 +17521,7 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
@@ -17566,7 +17566,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -17576,7 +17576,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>-441.8851135646357</t>
+          <t>-441.8378635647647</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
@@ -17616,7 +17616,7 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
@@ -17661,7 +17661,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -17701,7 +17701,7 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>-278.9671135646565</t>
+          <t>-249.98186356463006</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -17766,7 +17766,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>-408.28511356463554</t>
+          <t>-408.2378635647437</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
@@ -17806,7 +17806,7 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
@@ -17851,7 +17851,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -17861,7 +17861,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -17891,7 +17891,7 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>-354.3571135646365</t>
+          <t>-354.30986356470663</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
@@ -17901,7 +17901,7 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
@@ -17946,7 +17946,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -17986,7 +17986,7 @@
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>-564.1891135646347</t>
+          <t>-546.6698635648245</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
@@ -17996,7 +17996,7 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
@@ -18041,12 +18041,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -18081,12 +18081,12 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>-176.82311356467017</t>
+          <t>-176.77586356463013</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -18136,12 +18136,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>2.8249999999999806</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -18176,12 +18176,12 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>-2081.775113564846</t>
+          <t>-2081.727863564766</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -18231,7 +18231,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>-652.9351135646342</t>
+          <t>-652.8878635648847</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
@@ -18281,7 +18281,7 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
@@ -18326,7 +18326,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -18336,7 +18336,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>-911.0671135646362</t>
+          <t>-561.5798635648351</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
@@ -18421,12 +18421,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -18461,12 +18461,12 @@
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>-1157.6911135646783</t>
+          <t>-921.7718635649247</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -18516,7 +18516,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -18526,7 +18526,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -18556,7 +18556,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>-266.11511356465985</t>
+          <t>-266.06786356463886</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S191" t="inlineStr">
@@ -18611,7 +18611,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -18621,7 +18621,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -18651,7 +18651,7 @@
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>-1845.4411135648193</t>
+          <t>-1575.123863564898</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
@@ -18661,7 +18661,7 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
@@ -18706,7 +18706,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -18716,7 +18716,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -18746,7 +18746,7 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>-460.7431135646337</t>
+          <t>-460.6958635647777</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S193" t="inlineStr">
@@ -18801,7 +18801,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -18811,7 +18811,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>-395.22311356463496</t>
+          <t>-395.1758635647361</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
@@ -18896,7 +18896,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>-435.2071135646365</t>
+          <t>-435.15986356475923</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
@@ -18991,7 +18991,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -19001,7 +19001,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -19031,7 +19031,7 @@
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>-745.9651135646345</t>
+          <t>-745.917863564899</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
@@ -19086,12 +19086,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -19126,12 +19126,12 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>-276.9091135646562</t>
+          <t>-276.8618635646481</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -19181,12 +19181,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -19221,12 +19221,12 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>-348.05711356463615</t>
+          <t>-348.009863564702</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -19276,12 +19276,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -19316,12 +19316,12 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>-677.5471135646338</t>
+          <t>-677.4998635648861</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -19371,7 +19371,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -19381,7 +19381,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -19411,7 +19411,7 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>-577.6291135646351</t>
+          <t>-577.5818635648434</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
@@ -19421,7 +19421,7 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
@@ -19466,7 +19466,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -19506,7 +19506,7 @@
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>-316.59911356464306</t>
+          <t>-290.34386356465876</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S201" t="inlineStr">
@@ -19561,7 +19561,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -19601,7 +19601,7 @@
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>-876.5011135646338</t>
+          <t>-800.0138635649051</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
@@ -19611,7 +19611,7 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S202" t="inlineStr">
@@ -19656,7 +19656,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -19666,7 +19666,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -19696,7 +19696,7 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>-510.47111356463614</t>
+          <t>-479.8478635647879</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
@@ -19706,7 +19706,7 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S203" t="inlineStr">
@@ -19751,7 +19751,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -19761,7 +19761,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -19791,7 +19791,7 @@
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>-308.19911356464803</t>
+          <t>-308.1518635646726</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
@@ -19801,7 +19801,7 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S204" t="inlineStr">
@@ -19846,7 +19846,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -19856,7 +19856,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -19886,7 +19886,7 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>-612.405113564634</t>
+          <t>-317.5178635646782</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
@@ -19896,7 +19896,7 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
@@ -19941,7 +19941,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -19951,7 +19951,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>-690.0631135646339</t>
+          <t>-382.0718635647259</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S206" t="inlineStr">
@@ -20036,7 +20036,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -20046,7 +20046,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>-187.74311356466887</t>
+          <t>-187.69586356462963</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
@@ -20086,7 +20086,7 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S207" t="inlineStr">
@@ -20131,12 +20131,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -20171,12 +20171,12 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>-807.9991135646349</t>
+          <t>-633.2318635648804</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -20226,7 +20226,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -20266,7 +20266,7 @@
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>-770.1991135646348</t>
+          <t>-770.151863564898</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
@@ -20321,7 +20321,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -20331,7 +20331,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -20361,7 +20361,7 @@
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>-1072.1791135646495</t>
+          <t>-1039.3718635649357</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
@@ -20371,7 +20371,7 @@
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S210" t="inlineStr">
@@ -20416,7 +20416,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>-1275.79511356472</t>
+          <t>-1275.7478635649186</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
@@ -20511,7 +20511,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -20521,7 +20521,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -20551,7 +20551,7 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>-439.2391135646352</t>
+          <t>-439.19186356476405</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
@@ -20561,7 +20561,7 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S212" t="inlineStr">
@@ -20606,7 +20606,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -20616,7 +20616,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>-266.36711356465986</t>
+          <t>-266.3198635646405</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
@@ -20656,7 +20656,7 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
@@ -20701,7 +20701,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -20711,7 +20711,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -20741,7 +20741,7 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>-277.28711356465703</t>
+          <t>-277.23986356464917</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
@@ -20751,7 +20751,7 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S214" t="inlineStr">
@@ -20796,12 +20796,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -20836,12 +20836,12 @@
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>-280.35311356465627</t>
+          <t>-280.3058635646509</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -20891,12 +20891,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -20931,12 +20931,12 @@
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>-537.1831135646343</t>
+          <t>-379.8878635647259</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -20986,12 +20986,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -21026,12 +21026,12 @@
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>-663.6871135646312</t>
+          <t>-663.6398635648867</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -21081,7 +21081,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -21121,7 +21121,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>-168.0871135646714</t>
+          <t>-168.0398635646302</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S218" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -21186,7 +21186,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -21216,7 +21216,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>-139.69511356467274</t>
+          <t>-139.64786356463966</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S219" t="inlineStr">
@@ -21271,7 +21271,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -21281,7 +21281,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>-287.7871135646521</t>
+          <t>-287.73986356465736</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
@@ -21321,7 +21321,7 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S220" t="inlineStr">
@@ -21366,7 +21366,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -21406,7 +21406,7 @@
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>-519.0391135646335</t>
+          <t>-518.9918635648086</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
@@ -21416,7 +21416,7 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S221" t="inlineStr">
@@ -21461,7 +21461,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -21471,7 +21471,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -21501,7 +21501,7 @@
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>-500.0551135646373</t>
+          <t>-395.1758635647387</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
@@ -21511,7 +21511,7 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S222" t="inlineStr">
@@ -21556,7 +21556,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -21566,7 +21566,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -21596,7 +21596,7 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>-255.44711356466084</t>
+          <t>-255.3998635646296</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
@@ -21606,7 +21606,7 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S223" t="inlineStr">
@@ -21651,7 +21651,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -21661,7 +21661,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -21691,7 +21691,7 @@
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>-880.0711135646338</t>
+          <t>-880.0238635649142</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr">
@@ -21701,7 +21701,7 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S224" t="inlineStr">
@@ -21746,7 +21746,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -21756,7 +21756,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -21786,7 +21786,7 @@
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>-746.3011135646345</t>
+          <t>-746.2538635648955</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr">
@@ -21796,7 +21796,7 @@
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S225" t="inlineStr">
@@ -21841,12 +21841,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -21881,12 +21881,12 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>-135.32711356467323</t>
+          <t>-135.27986356464095</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -21936,7 +21936,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -21946,7 +21946,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>-2069.9731135648303</t>
+          <t>-2929.8758635647346</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
@@ -21986,7 +21986,7 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S227" t="inlineStr">
@@ -22031,7 +22031,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -22041,7 +22041,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -22071,7 +22071,7 @@
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>-2013.9871135648339</t>
+          <t>-2013.939863564789</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
@@ -22081,7 +22081,7 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
@@ -22126,7 +22126,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -22136,7 +22136,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -22166,7 +22166,7 @@
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>-268.84511356465896</t>
+          <t>-268.7978635646423</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S229" t="inlineStr">
@@ -22221,7 +22221,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -22261,7 +22261,7 @@
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>-950.2951135646362</t>
+          <t>-950.2478635649197</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
@@ -22271,7 +22271,7 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S230" t="inlineStr">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -22326,7 +22326,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>-353.72711356463645</t>
+          <t>-353.6798635647065</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
@@ -22366,7 +22366,7 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S231" t="inlineStr">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -22421,7 +22421,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -22451,7 +22451,7 @@
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>-246.12311356466208</t>
+          <t>-246.0758635646293</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
@@ -22461,7 +22461,7 @@
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S232" t="inlineStr">
@@ -22506,12 +22506,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -22546,12 +22546,12 @@
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>-413.24111356463567</t>
+          <t>-413.1938635647472</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -22601,12 +22601,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -22641,12 +22641,12 @@
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>-372.2911135646356</t>
+          <t>-372.2438635647198</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -22696,12 +22696,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -22736,12 +22736,12 @@
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>-351.87911356463775</t>
+          <t>-327.26186356468696</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
@@ -22791,7 +22791,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -22801,7 +22801,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -22831,7 +22831,7 @@
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>-369.0151135646367</t>
+          <t>-368.96786356471677</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
@@ -22841,7 +22841,7 @@
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S236" t="inlineStr">
@@ -22886,7 +22886,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -22896,7 +22896,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -22926,7 +22926,7 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>-414.54311356463495</t>
+          <t>-414.4958635647474</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S237" t="inlineStr">
@@ -22981,7 +22981,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -22991,7 +22991,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -23021,7 +23021,7 @@
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>-185.55911356466925</t>
+          <t>-185.51186356462998</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
@@ -23031,7 +23031,7 @@
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S238" t="inlineStr">
@@ -23076,7 +23076,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -23086,7 +23086,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -23116,7 +23116,7 @@
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>-417.52511356463503</t>
+          <t>-417.477863564753</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr">
@@ -23126,7 +23126,7 @@
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S239" t="inlineStr">
@@ -23171,7 +23171,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -23181,7 +23181,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -23211,7 +23211,7 @@
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>-2525.043113564867</t>
+          <t>-2524.9958635647026</t>
         </is>
       </c>
       <c r="Q240" t="inlineStr">
@@ -23221,7 +23221,7 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S240" t="inlineStr">
@@ -23266,7 +23266,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -23306,7 +23306,7 @@
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>-209.5831135646662</t>
+          <t>-209.5358635646299</t>
         </is>
       </c>
       <c r="Q241" t="inlineStr">
@@ -23316,7 +23316,7 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S241" t="inlineStr">
@@ -23361,7 +23361,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -23371,7 +23371,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>-152.79911356467215</t>
+          <t>-152.7518635646358</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr">
@@ -23411,7 +23411,7 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S242" t="inlineStr">
@@ -23456,7 +23456,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -23466,7 +23466,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -23496,7 +23496,7 @@
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>-234.19511356466273</t>
+          <t>-234.14786356462955</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr">
@@ -23506,7 +23506,7 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S243" t="inlineStr">
@@ -23551,12 +23551,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -23591,12 +23591,12 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>-490.22711356463367</t>
+          <t>-490.1798635647937</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -23646,7 +23646,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -23686,7 +23686,7 @@
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>-203.03111356466746</t>
+          <t>-202.98386356463016</t>
         </is>
       </c>
       <c r="Q245" t="inlineStr">
@@ -23696,7 +23696,7 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S245" t="inlineStr">
@@ -23741,7 +23741,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -23751,7 +23751,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -23781,7 +23781,7 @@
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>-644.9551135646332</t>
+          <t>-644.9078635648843</t>
         </is>
       </c>
       <c r="Q246" t="inlineStr">
@@ -23791,7 +23791,7 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S246" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -23846,7 +23846,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>-401.7751135646358</t>
+          <t>-401.7278635647412</t>
         </is>
       </c>
       <c r="Q247" t="inlineStr">
@@ -23886,7 +23886,7 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S247" t="inlineStr">
@@ -23931,7 +23931,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -23941,7 +23941,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>-164.26511356467182</t>
+          <t>-164.2178635646303</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S248" t="inlineStr">
@@ -24026,7 +24026,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -24036,7 +24036,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -24066,7 +24066,7 @@
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>-547.7671135646337</t>
+          <t>-547.7198635648267</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S249" t="inlineStr">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -24131,7 +24131,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -24161,7 +24161,7 @@
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>-146.2471135646724</t>
+          <t>-146.19986356463835</t>
         </is>
       </c>
       <c r="Q250" t="inlineStr">
@@ -24171,7 +24171,7 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S250" t="inlineStr">
@@ -24216,12 +24216,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -24256,12 +24256,12 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>-272.91911356465795</t>
+          <t>-272.87186356464616</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -24311,12 +24311,12 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -24351,12 +24351,12 @@
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>-240.15911356466253</t>
+          <t>-240.11186356462983</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -24406,12 +24406,12 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -24446,12 +24446,12 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>-237.97511356466327</t>
+          <t>-237.92786356462935</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -24501,7 +24501,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -24511,7 +24511,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -24541,7 +24541,7 @@
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>-266.3671135646597</t>
+          <t>-266.31986356463926</t>
         </is>
       </c>
       <c r="Q254" t="inlineStr">
@@ -24551,7 +24551,7 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S254" t="inlineStr">
@@ -24596,7 +24596,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -24606,7 +24606,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -24636,7 +24636,7 @@
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>-403.9591135646354</t>
+          <t>-403.91186356474157</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr">
@@ -24646,7 +24646,7 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S255" t="inlineStr">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -24701,7 +24701,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -24731,7 +24731,7 @@
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>-198.66311356466733</t>
+          <t>-198.61586356462976</t>
         </is>
       </c>
       <c r="Q256" t="inlineStr">
@@ -24741,7 +24741,7 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S256" t="inlineStr">
@@ -24786,7 +24786,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -24796,7 +24796,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -24826,7 +24826,7 @@
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>-711.9031135646329</t>
+          <t>-711.8558635648923</t>
         </is>
       </c>
       <c r="Q257" t="inlineStr">
@@ -24836,7 +24836,7 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S257" t="inlineStr">
@@ -24881,7 +24881,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -24891,7 +24891,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -24921,7 +24921,7 @@
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>-340.62311356463607</t>
+          <t>-340.5758635646977</t>
         </is>
       </c>
       <c r="Q258" t="inlineStr">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S258" t="inlineStr">
@@ -24976,7 +24976,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -24986,7 +24986,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -25016,7 +25016,7 @@
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>-545.4991135646331</t>
+          <t>-545.4518635648261</t>
         </is>
       </c>
       <c r="Q259" t="inlineStr">
@@ -25026,7 +25026,7 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S259" t="inlineStr">
@@ -25071,7 +25071,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -25081,7 +25081,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -25111,7 +25111,7 @@
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>-622.6951135646345</t>
+          <t>-622.6478635648753</t>
         </is>
       </c>
       <c r="Q260" t="inlineStr">
@@ -25121,7 +25121,7 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S260" t="inlineStr">
@@ -25166,7 +25166,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -25176,7 +25176,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -25206,7 +25206,7 @@
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>-824.715113564632</t>
+          <t>-824.6678635649091</t>
         </is>
       </c>
       <c r="Q261" t="inlineStr">
@@ -25216,7 +25216,7 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S261" t="inlineStr">
@@ -25261,12 +25261,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -25301,12 +25301,12 @@
       </c>
       <c r="P262" t="inlineStr">
         <is>
-          <t>-746.8051135646357</t>
+          <t>-707.4458635648913</t>
         </is>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -25356,7 +25356,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -25366,7 +25366,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -25396,7 +25396,7 @@
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>-320.96711356464147</t>
+          <t>-320.9198635646831</t>
         </is>
       </c>
       <c r="Q263" t="inlineStr">
@@ -25406,7 +25406,7 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S263" t="inlineStr">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -25461,7 +25461,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -25491,7 +25491,7 @@
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>-1407.1711135647565</t>
+          <t>-1344.7958635649081</t>
         </is>
       </c>
       <c r="Q264" t="inlineStr">
@@ -25501,7 +25501,7 @@
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S264" t="inlineStr">
@@ -25546,7 +25546,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -25586,7 +25586,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>-462.4651135646342</t>
+          <t>-462.41786356477627</t>
         </is>
       </c>
       <c r="Q265" t="inlineStr">
@@ -25596,7 +25596,7 @@
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S265" t="inlineStr">
@@ -25641,7 +25641,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -25651,7 +25651,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -25681,7 +25681,7 @@
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>-667.7611135646348</t>
+          <t>-667.7138635648847</t>
         </is>
       </c>
       <c r="Q266" t="inlineStr">
@@ -25691,7 +25691,7 @@
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S266" t="inlineStr">
@@ -25736,7 +25736,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>-631.0951135646335</t>
+          <t>-459.0578635647758</t>
         </is>
       </c>
       <c r="Q267" t="inlineStr">
@@ -25786,7 +25786,7 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S267" t="inlineStr">
@@ -25831,7 +25831,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -25841,7 +25841,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -25871,7 +25871,7 @@
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>-130.95911356467408</t>
+          <t>-130.91186356464146</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr">
@@ -25881,7 +25881,7 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S268" t="inlineStr">
@@ -25926,12 +25926,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -25966,12 +25966,12 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>-508.9591135646343</t>
+          <t>-508.9118635648058</t>
         </is>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -26021,12 +26021,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -26061,12 +26061,12 @@
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>-605.2651135646365</t>
+          <t>-695.6018635648871</t>
         </is>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -26116,12 +26116,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -26156,12 +26156,12 @@
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>-1086.8791135646584</t>
+          <t>-850.9598635649144</t>
         </is>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -26211,7 +26211,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -26221,7 +26221,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -26251,7 +26251,7 @@
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>-1098.4711135646635</t>
+          <t>-1098.4238635649417</t>
         </is>
       </c>
       <c r="Q272" t="inlineStr">
@@ -26261,7 +26261,7 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S272" t="inlineStr">
@@ -26306,7 +26306,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -26316,7 +26316,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -26346,7 +26346,7 @@
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>-1107.2071135646613</t>
+          <t>-1137.1898635649397</t>
         </is>
       </c>
       <c r="Q273" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S273" t="inlineStr">
@@ -26401,7 +26401,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -26441,7 +26441,7 @@
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>-137.51111356467297</t>
+          <t>-137.46386356464026</t>
         </is>
       </c>
       <c r="Q274" t="inlineStr">
@@ -26451,7 +26451,7 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S274" t="inlineStr">
@@ -26496,7 +26496,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -26506,7 +26506,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -26536,7 +26536,7 @@
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>-478.21511356463407</t>
+          <t>-478.1678635647865</t>
         </is>
       </c>
       <c r="Q275" t="inlineStr">
@@ -26546,7 +26546,7 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S275" t="inlineStr">
@@ -26591,7 +26591,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -26631,7 +26631,7 @@
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>-452.5951135646346</t>
+          <t>-452.54786356476984</t>
         </is>
       </c>
       <c r="Q276" t="inlineStr">
@@ -26641,7 +26641,7 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S276" t="inlineStr">
@@ -26686,7 +26686,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -26696,7 +26696,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -26726,7 +26726,7 @@
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>-216.1351135646655</t>
+          <t>-216.08786356462943</t>
         </is>
       </c>
       <c r="Q277" t="inlineStr">
@@ -26736,7 +26736,7 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S277" t="inlineStr">
@@ -26781,7 +26781,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -26791,7 +26791,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -26821,7 +26821,7 @@
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>-269.18111356465926</t>
+          <t>-269.133863564642</t>
         </is>
       </c>
       <c r="Q278" t="inlineStr">
@@ -26831,7 +26831,7 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S278" t="inlineStr">
@@ -26876,7 +26876,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -26886,7 +26886,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -26916,7 +26916,7 @@
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>-878.3911135646315</t>
+          <t>-817.1918635649076</t>
         </is>
       </c>
       <c r="Q279" t="inlineStr">
@@ -26926,7 +26926,7 @@
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S279" t="inlineStr">
@@ -26971,12 +26971,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>0.5776933819433462</t>
+          <t>0.14358515798960858</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -27011,12 +27011,12 @@
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>-240.15911356466293</t>
+          <t>-240.11186356462963</t>
         </is>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>-397.82552304712624</t>
+          <t>-397.68946969658555</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -27066,7 +27066,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -27076,7 +27076,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>-209.919113564666</t>
+          <t>-209.87186356462982</t>
         </is>
       </c>
       <c r="Q281" t="inlineStr">
@@ -27116,7 +27116,7 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S281" t="inlineStr">
@@ -27161,7 +27161,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -27171,7 +27171,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -27201,7 +27201,7 @@
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>-185.5591135646692</t>
+          <t>-185.51186356462998</t>
         </is>
       </c>
       <c r="Q282" t="inlineStr">
@@ -27211,7 +27211,7 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S282" t="inlineStr">
@@ -27256,7 +27256,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -27266,7 +27266,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>0.602017313814645</t>
+          <t>0.14963084885232894</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -27296,7 +27296,7 @@
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>-802.0351135646362</t>
+          <t>-670.9478635648841</t>
         </is>
       </c>
       <c r="Q283" t="inlineStr">
@@ -27306,7 +27306,7 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>-207.2880356929771</t>
+          <t>-207.21714473664426</t>
         </is>
       </c>
       <c r="S283" t="inlineStr">

--- a/Base/APIOutputAgentData_300_gridConnections.xlsx
+++ b/Base/APIOutputAgentData_300_gridConnections.xlsx
@@ -746,7 +746,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2631,12 +2631,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2726,12 +2726,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>hol1</t>
+          <t>sup1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
+          <t>root.pop_energySuppliers[0]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3391,12 +3391,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3486,12 +3486,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -4341,12 +4341,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -5006,12 +5006,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -5196,12 +5196,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -6051,12 +6051,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -6811,12 +6811,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -6906,12 +6906,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -7761,12 +7761,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -8426,12 +8426,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -8521,12 +8521,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -8586,7 +8586,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -8616,12 +8616,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -10136,12 +10136,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -10231,12 +10231,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -10246,7 +10246,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -10531,7 +10531,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -11181,12 +11181,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -11196,7 +11196,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -11246,7 +11246,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -11276,12 +11276,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -11371,12 +11371,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -11436,7 +11436,7 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -12226,12 +12226,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -12891,12 +12891,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -12906,7 +12906,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -12956,7 +12956,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -12986,12 +12986,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -13001,7 +13001,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -13081,12 +13081,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -13936,12 +13936,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -14601,12 +14601,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -14696,12 +14696,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -14711,7 +14711,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -14761,7 +14761,7 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -14791,12 +14791,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -14856,7 +14856,7 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -15646,12 +15646,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -16311,12 +16311,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -16376,7 +16376,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -16406,12 +16406,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -16421,7 +16421,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -16471,7 +16471,7 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -16501,12 +16501,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -17356,12 +17356,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -17371,7 +17371,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -17421,7 +17421,7 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -18021,12 +18021,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -18036,7 +18036,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -18116,12 +18116,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -18181,7 +18181,7 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -18401,12 +18401,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -18466,7 +18466,7 @@
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -18496,12 +18496,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>hol1</t>
+          <t>sup1</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
+          <t>root.pop_energySuppliers[0]</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -19066,12 +19066,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -19081,7 +19081,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -19161,12 +19161,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -19226,7 +19226,7 @@
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -19256,12 +19256,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -19321,7 +19321,7 @@
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -20111,12 +20111,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -20126,7 +20126,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -20176,7 +20176,7 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -20776,12 +20776,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -20841,7 +20841,7 @@
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -20871,12 +20871,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -20886,7 +20886,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -20966,12 +20966,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -20981,7 +20981,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -21031,7 +21031,7 @@
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -21821,12 +21821,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -22486,12 +22486,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -22501,7 +22501,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -22551,7 +22551,7 @@
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -22581,12 +22581,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -22596,7 +22596,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -22646,7 +22646,7 @@
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -22676,12 +22676,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -22741,7 +22741,7 @@
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
@@ -23531,12 +23531,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -23546,7 +23546,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -23596,7 +23596,7 @@
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -24196,12 +24196,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -24211,7 +24211,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -24261,7 +24261,7 @@
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -24291,12 +24291,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -24306,7 +24306,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -24356,7 +24356,7 @@
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -24386,12 +24386,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -24401,7 +24401,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -24451,7 +24451,7 @@
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -25241,12 +25241,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -25256,7 +25256,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -25306,7 +25306,7 @@
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -25906,12 +25906,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -25921,7 +25921,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -25971,7 +25971,7 @@
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -26001,12 +26001,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>sup2</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -26016,7 +26016,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -26066,7 +26066,7 @@
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -26096,12 +26096,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -26111,7 +26111,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -26381,12 +26381,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>hol1</t>
+          <t>sup1</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
+          <t>root.pop_energySuppliers[0]</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -26951,12 +26951,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>sup1</t>
+          <t>hol1</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[0]</t>
+          <t>root.pop_energyHolons[0]( p_actorID = hol1, p_actorType = holon, p_parentActorID = sup2 )</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -26966,7 +26966,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -27016,7 +27016,7 @@
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>-397.68946969658555</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -27536,7 +27536,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>root.pop_energySuppliers[1]</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">

--- a/Base/APIOutputAgentData_300_gridConnections.xlsx
+++ b/Base/APIOutputAgentData_300_gridConnections.xlsx
@@ -19931,7 +19931,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[222]</t>
+          <t>root.pop_gridConnections[221]</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>-382.0718635647259</t>
+          <t>-342.75986356469923</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
@@ -20026,7 +20026,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[223]</t>
+          <t>root.pop_gridConnections[222]</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>-187.69586356462963</t>
+          <t>-382.0718635647259</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
@@ -20121,7 +20121,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[224]</t>
+          <t>root.pop_gridConnections[223]</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -20171,7 +20171,7 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>-633.2318635648804</t>
+          <t>-187.69586356462963</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[225]</t>
+          <t>root.pop_gridConnections[224]</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -20266,7 +20266,7 @@
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>-770.151863564898</t>
+          <t>-633.2318635648804</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
@@ -20311,7 +20311,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[226]</t>
+          <t>root.pop_gridConnections[225]</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -20361,7 +20361,7 @@
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>-1039.3718635649357</t>
+          <t>-770.151863564898</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
@@ -20406,7 +20406,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[227]</t>
+          <t>root.pop_gridConnections[226]</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>-1275.7478635649186</t>
+          <t>-1039.3718635649357</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[228]</t>
+          <t>root.pop_gridConnections[227]</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -20551,7 +20551,7 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>-439.19186356476405</t>
+          <t>-1275.7478635649186</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[229]</t>
+          <t>root.pop_gridConnections[228]</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>-266.3198635646405</t>
+          <t>-439.19186356476405</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
@@ -20691,7 +20691,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[230]</t>
+          <t>root.pop_gridConnections[229]</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -20741,7 +20741,7 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>-277.23986356464917</t>
+          <t>-266.3198635646405</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
@@ -20786,7 +20786,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[231]</t>
+          <t>root.pop_gridConnections[230]</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -20836,7 +20836,7 @@
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>-280.3058635646509</t>
+          <t>-277.23986356464917</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr">
@@ -20881,7 +20881,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[232]</t>
+          <t>root.pop_gridConnections[231]</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -20931,7 +20931,7 @@
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>-379.8878635647259</t>
+          <t>-280.3058635646509</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
@@ -20976,7 +20976,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[233]</t>
+          <t>root.pop_gridConnections[232]</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -21026,7 +21026,7 @@
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>-663.6398635648867</t>
+          <t>-379.8878635647259</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
@@ -21071,7 +21071,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[234]</t>
+          <t>root.pop_gridConnections[233]</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -21121,7 +21121,7 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>-168.0398635646302</t>
+          <t>-663.6398635648867</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
@@ -21166,7 +21166,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[235]</t>
+          <t>root.pop_gridConnections[234]</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -21216,7 +21216,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>-139.64786356463966</t>
+          <t>-168.0398635646302</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
@@ -21261,7 +21261,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[236]</t>
+          <t>root.pop_gridConnections[235]</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>-287.73986356465736</t>
+          <t>-139.64786356463966</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
@@ -21356,7 +21356,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[237]</t>
+          <t>root.pop_gridConnections[236]</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -21406,7 +21406,7 @@
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>-518.9918635648086</t>
+          <t>-287.73986356465736</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
@@ -21451,7 +21451,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[238]</t>
+          <t>root.pop_gridConnections[237]</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -21501,7 +21501,7 @@
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>-395.1758635647387</t>
+          <t>-518.9918635648086</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
@@ -21546,7 +21546,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[239]</t>
+          <t>root.pop_gridConnections[238]</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -21596,7 +21596,7 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>-255.3998635646296</t>
+          <t>-395.1758635647387</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
@@ -21641,7 +21641,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[240]</t>
+          <t>root.pop_gridConnections[239]</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -21691,7 +21691,7 @@
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>-880.0238635649142</t>
+          <t>-255.3998635646296</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[241]</t>
+          <t>root.pop_gridConnections[240]</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -21786,7 +21786,7 @@
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>-746.2538635648955</t>
+          <t>-880.0238635649142</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr">
@@ -21831,7 +21831,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[242]</t>
+          <t>root.pop_gridConnections[241]</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -21881,7 +21881,7 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>-135.27986356464095</t>
+          <t>-746.2538635648955</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr">
@@ -21926,7 +21926,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[243]</t>
+          <t>root.pop_gridConnections[242]</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>-2929.8758635647346</t>
+          <t>-135.27986356464095</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
@@ -22021,7 +22021,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[244]</t>
+          <t>root.pop_gridConnections[243]</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -22071,7 +22071,7 @@
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>-2013.939863564789</t>
+          <t>-2929.8758635647346</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
@@ -22116,7 +22116,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[245]</t>
+          <t>root.pop_gridConnections[244]</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -22166,7 +22166,7 @@
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>-268.7978635646423</t>
+          <t>-2013.939863564789</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
@@ -22211,7 +22211,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[246]</t>
+          <t>root.pop_gridConnections[245]</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -22261,7 +22261,7 @@
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>-950.2478635649197</t>
+          <t>-268.7978635646423</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
@@ -22306,7 +22306,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[247]</t>
+          <t>root.pop_gridConnections[246]</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>-353.6798635647065</t>
+          <t>-950.2478635649197</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
@@ -22401,7 +22401,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[248]</t>
+          <t>root.pop_gridConnections[247]</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -22451,7 +22451,7 @@
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>-246.0758635646293</t>
+          <t>-353.6798635647065</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
@@ -22496,7 +22496,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[249]</t>
+          <t>root.pop_gridConnections[248]</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -22546,7 +22546,7 @@
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>-413.1938635647472</t>
+          <t>-246.0758635646293</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
@@ -22591,7 +22591,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[250]</t>
+          <t>root.pop_gridConnections[249]</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -22641,7 +22641,7 @@
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>-372.2438635647198</t>
+          <t>-413.1938635647472</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[251]</t>
+          <t>root.pop_gridConnections[250]</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>-327.26186356468696</t>
+          <t>-372.2438635647198</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
@@ -22781,7 +22781,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[252]</t>
+          <t>root.pop_gridConnections[251]</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -22831,7 +22831,7 @@
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>-368.96786356471677</t>
+          <t>-327.26186356468696</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[253]</t>
+          <t>root.pop_gridConnections[252]</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -22926,7 +22926,7 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>-414.4958635647474</t>
+          <t>-368.96786356471677</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
@@ -22971,7 +22971,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[254]</t>
+          <t>root.pop_gridConnections[253]</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -23021,7 +23021,7 @@
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>-185.51186356462998</t>
+          <t>-414.4958635647474</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
@@ -23066,7 +23066,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[255]</t>
+          <t>root.pop_gridConnections[254]</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -23116,7 +23116,7 @@
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>-417.477863564753</t>
+          <t>-185.51186356462998</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr">
@@ -23161,7 +23161,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[256]</t>
+          <t>root.pop_gridConnections[255]</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -23211,7 +23211,7 @@
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>-2524.9958635647026</t>
+          <t>-417.477863564753</t>
         </is>
       </c>
       <c r="Q240" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[257]</t>
+          <t>root.pop_gridConnections[256]</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -23306,7 +23306,7 @@
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>-209.5358635646299</t>
+          <t>-2524.9958635647026</t>
         </is>
       </c>
       <c r="Q241" t="inlineStr">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[258]</t>
+          <t>root.pop_gridConnections[257]</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>-152.7518635646358</t>
+          <t>-209.5358635646299</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr">
@@ -23446,7 +23446,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[259]</t>
+          <t>root.pop_gridConnections[258]</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -23496,7 +23496,7 @@
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>-234.14786356462955</t>
+          <t>-152.7518635646358</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr">
@@ -23541,7 +23541,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[260]</t>
+          <t>root.pop_gridConnections[259]</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -23591,7 +23591,7 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>-490.1798635647937</t>
+          <t>-234.14786356462955</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[261]</t>
+          <t>root.pop_gridConnections[260]</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -23686,7 +23686,7 @@
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>-202.98386356463016</t>
+          <t>-490.1798635647937</t>
         </is>
       </c>
       <c r="Q245" t="inlineStr">
@@ -23731,7 +23731,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[262]</t>
+          <t>root.pop_gridConnections[261]</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -23781,7 +23781,7 @@
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>-644.9078635648843</t>
+          <t>-202.98386356463016</t>
         </is>
       </c>
       <c r="Q246" t="inlineStr">
@@ -23826,7 +23826,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[263]</t>
+          <t>root.pop_gridConnections[262]</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>-401.7278635647412</t>
+          <t>-644.9078635648843</t>
         </is>
       </c>
       <c r="Q247" t="inlineStr">
@@ -23921,7 +23921,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[264]</t>
+          <t>root.pop_gridConnections[263]</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>-164.2178635646303</t>
+          <t>-401.7278635647412</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[265]</t>
+          <t>root.pop_gridConnections[264]</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -24066,7 +24066,7 @@
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>-547.7198635648267</t>
+          <t>-164.2178635646303</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
@@ -24111,7 +24111,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[266]</t>
+          <t>root.pop_gridConnections[265]</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -24161,7 +24161,7 @@
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>-146.19986356463835</t>
+          <t>-547.7198635648267</t>
         </is>
       </c>
       <c r="Q250" t="inlineStr">
@@ -24206,7 +24206,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[267]</t>
+          <t>root.pop_gridConnections[266]</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>-272.87186356464616</t>
+          <t>-146.19986356463835</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
@@ -24301,7 +24301,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[268]</t>
+          <t>root.pop_gridConnections[267]</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -24351,7 +24351,7 @@
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>-240.11186356462983</t>
+          <t>-272.87186356464616</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr">
@@ -24396,7 +24396,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[269]</t>
+          <t>root.pop_gridConnections[268]</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -24446,7 +24446,7 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>-237.92786356462935</t>
+          <t>-240.11186356462983</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr">
@@ -24491,7 +24491,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[270]</t>
+          <t>root.pop_gridConnections[269]</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -24541,7 +24541,7 @@
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>-266.31986356463926</t>
+          <t>-237.92786356462935</t>
         </is>
       </c>
       <c r="Q254" t="inlineStr">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[271]</t>
+          <t>root.pop_gridConnections[270]</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -24636,7 +24636,7 @@
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>-403.91186356474157</t>
+          <t>-266.31986356463926</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr">
@@ -24681,7 +24681,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[272]</t>
+          <t>root.pop_gridConnections[271]</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -24731,7 +24731,7 @@
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>-198.61586356462976</t>
+          <t>-403.91186356474157</t>
         </is>
       </c>
       <c r="Q256" t="inlineStr">
@@ -24776,7 +24776,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[273]</t>
+          <t>root.pop_gridConnections[272]</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -24826,7 +24826,7 @@
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>-711.8558635648923</t>
+          <t>-198.61586356462976</t>
         </is>
       </c>
       <c r="Q257" t="inlineStr">
@@ -24871,7 +24871,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[274]</t>
+          <t>root.pop_gridConnections[273]</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -24921,7 +24921,7 @@
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>-340.5758635646977</t>
+          <t>-711.8558635648923</t>
         </is>
       </c>
       <c r="Q258" t="inlineStr">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[275]</t>
+          <t>root.pop_gridConnections[274]</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -25016,7 +25016,7 @@
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>-545.4518635648261</t>
+          <t>-340.5758635646977</t>
         </is>
       </c>
       <c r="Q259" t="inlineStr">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[276]</t>
+          <t>root.pop_gridConnections[275]</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -25111,7 +25111,7 @@
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>-622.6478635648753</t>
+          <t>-545.4518635648261</t>
         </is>
       </c>
       <c r="Q260" t="inlineStr">
@@ -25156,7 +25156,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[277]</t>
+          <t>root.pop_gridConnections[276]</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -25206,7 +25206,7 @@
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>-824.6678635649091</t>
+          <t>-622.6478635648753</t>
         </is>
       </c>
       <c r="Q261" t="inlineStr">
@@ -25251,7 +25251,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[278]</t>
+          <t>root.pop_gridConnections[277]</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -25301,7 +25301,7 @@
       </c>
       <c r="P262" t="inlineStr">
         <is>
-          <t>-707.4458635648913</t>
+          <t>-824.6678635649091</t>
         </is>
       </c>
       <c r="Q262" t="inlineStr">
@@ -25346,7 +25346,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[279]</t>
+          <t>root.pop_gridConnections[278]</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -25396,7 +25396,7 @@
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>-320.9198635646831</t>
+          <t>-707.4458635648913</t>
         </is>
       </c>
       <c r="Q263" t="inlineStr">
@@ -25441,7 +25441,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[280]</t>
+          <t>root.pop_gridConnections[279]</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -25491,7 +25491,7 @@
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>-1344.7958635649081</t>
+          <t>-320.9198635646831</t>
         </is>
       </c>
       <c r="Q264" t="inlineStr">
@@ -25536,7 +25536,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[281]</t>
+          <t>root.pop_gridConnections[280]</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -25586,7 +25586,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>-462.41786356477627</t>
+          <t>-1344.7958635649081</t>
         </is>
       </c>
       <c r="Q265" t="inlineStr">
@@ -25631,7 +25631,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[282]</t>
+          <t>root.pop_gridConnections[281]</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -25681,7 +25681,7 @@
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>-667.7138635648847</t>
+          <t>-462.41786356477627</t>
         </is>
       </c>
       <c r="Q266" t="inlineStr">
@@ -25726,7 +25726,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[283]</t>
+          <t>root.pop_gridConnections[282]</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>-459.0578635647758</t>
+          <t>-667.7138635648847</t>
         </is>
       </c>
       <c r="Q267" t="inlineStr">
@@ -25821,7 +25821,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[284]</t>
+          <t>root.pop_gridConnections[283]</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -25871,7 +25871,7 @@
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>-130.91186356464146</t>
+          <t>-459.0578635647758</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[285]</t>
+          <t>root.pop_gridConnections[284]</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -25966,7 +25966,7 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>-508.9118635648058</t>
+          <t>-130.91186356464146</t>
         </is>
       </c>
       <c r="Q269" t="inlineStr">
@@ -26011,7 +26011,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[286]</t>
+          <t>root.pop_gridConnections[285]</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>-695.6018635648871</t>
+          <t>-508.9118635648058</t>
         </is>
       </c>
       <c r="Q270" t="inlineStr">
@@ -26106,7 +26106,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[287]</t>
+          <t>root.pop_gridConnections[286]</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -26156,7 +26156,7 @@
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>-850.9598635649144</t>
+          <t>-695.6018635648871</t>
         </is>
       </c>
       <c r="Q271" t="inlineStr">
@@ -26201,7 +26201,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[288]</t>
+          <t>root.pop_gridConnections[287]</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -26251,7 +26251,7 @@
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>-1098.4238635649417</t>
+          <t>-850.9598635649144</t>
         </is>
       </c>
       <c r="Q272" t="inlineStr">
@@ -26296,7 +26296,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[289]</t>
+          <t>root.pop_gridConnections[288]</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -26346,7 +26346,7 @@
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>-1137.1898635649397</t>
+          <t>-1098.4238635649417</t>
         </is>
       </c>
       <c r="Q273" t="inlineStr">
@@ -26391,7 +26391,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[290]</t>
+          <t>root.pop_gridConnections[289]</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -26441,7 +26441,7 @@
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>-137.46386356464026</t>
+          <t>-1137.1898635649397</t>
         </is>
       </c>
       <c r="Q274" t="inlineStr">
@@ -26486,7 +26486,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[291]</t>
+          <t>root.pop_gridConnections[290]</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -26536,7 +26536,7 @@
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>-478.1678635647865</t>
+          <t>-137.46386356464026</t>
         </is>
       </c>
       <c r="Q275" t="inlineStr">
@@ -26581,7 +26581,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[292]</t>
+          <t>root.pop_gridConnections[291]</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -26631,7 +26631,7 @@
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>-452.54786356476984</t>
+          <t>-478.1678635647865</t>
         </is>
       </c>
       <c r="Q276" t="inlineStr">
@@ -26676,7 +26676,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[293]</t>
+          <t>root.pop_gridConnections[292]</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -26726,7 +26726,7 @@
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>-216.08786356462943</t>
+          <t>-452.54786356476984</t>
         </is>
       </c>
       <c r="Q277" t="inlineStr">
@@ -26771,7 +26771,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[294]</t>
+          <t>root.pop_gridConnections[293]</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -26821,7 +26821,7 @@
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>-269.133863564642</t>
+          <t>-216.08786356462943</t>
         </is>
       </c>
       <c r="Q278" t="inlineStr">
@@ -26866,7 +26866,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[295]</t>
+          <t>root.pop_gridConnections[294]</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -26916,7 +26916,7 @@
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>-817.1918635649076</t>
+          <t>-269.133863564642</t>
         </is>
       </c>
       <c r="Q279" t="inlineStr">
@@ -26961,7 +26961,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[296]</t>
+          <t>root.pop_gridConnections[295]</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -27011,7 +27011,7 @@
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>-240.11186356462963</t>
+          <t>-817.1918635649076</t>
         </is>
       </c>
       <c r="Q280" t="inlineStr">
@@ -27056,7 +27056,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[297]</t>
+          <t>root.pop_gridConnections[296]</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>-209.87186356462982</t>
+          <t>-240.11186356462963</t>
         </is>
       </c>
       <c r="Q281" t="inlineStr">
@@ -27151,7 +27151,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[298]</t>
+          <t>root.pop_gridConnections[297]</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -27201,7 +27201,7 @@
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>-185.51186356462998</t>
+          <t>-209.87186356462982</t>
         </is>
       </c>
       <c r="Q282" t="inlineStr">
@@ -27246,7 +27246,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>root.pop_gridConnections[299]</t>
+          <t>root.pop_gridConnections[298]</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -27296,7 +27296,7 @@
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>-670.9478635648841</t>
+          <t>-185.51186356462998</t>
         </is>
       </c>
       <c r="Q283" t="inlineStr">
